--- a/icm/resource/data.xlsx
+++ b/icm/resource/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2284,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P179"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView showFormulas="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10715,8 +10715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1EF28-7017-414C-8B44-829027F84BD1}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10782,533 +10782,533 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>486</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>487</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>394</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>7</v>
+        <v>351</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="S2" s="5">
-        <v>8.3000000000000007</v>
+        <v>189</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>0.9</v>
+      </c>
+      <c r="R2">
+        <v>9.9</v>
+      </c>
+      <c r="S2">
+        <v>14.3</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>96</v>
+        <v>367</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>369</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>46</v>
+        <v>321</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>74</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="R3" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="S3" s="5">
-        <v>10.199999999999999</v>
+        <v>126</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.7</v>
+      </c>
+      <c r="S3">
+        <v>15.7</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>590</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>591</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>592</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>509</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>498</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>498</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>146</v>
+        <v>432</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>153</v>
+        <v>510</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>546</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>103</v>
+        <v>505</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>88</v>
+        <v>510</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>27</v>
+        <v>466</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="5">
-        <v>2.9</v>
+        <v>546</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>0.6</v>
+      </c>
+      <c r="R4">
+        <v>16.2</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>221</v>
+        <v>495</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>496</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>223</v>
+        <v>497</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>179</v>
+        <v>376</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>126</v>
+        <v>465</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>42</v>
+        <v>498</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>22</v>
+        <v>394</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="R5" s="4">
-        <v>27</v>
-      </c>
-      <c r="S5" s="5">
-        <v>18.7</v>
+        <v>161</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2.9</v>
+      </c>
+      <c r="R5">
+        <v>52.7</v>
+      </c>
+      <c r="S5">
+        <v>15.8</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>274</v>
+        <v>563</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>275</v>
+        <v>564</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>276</v>
+        <v>565</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>134</v>
+        <v>541</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>33</v>
+        <v>466</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>146</v>
+        <v>505</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>70</v>
+        <v>494</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>149</v>
+        <v>418</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="R6" s="4">
-        <v>23.8</v>
-      </c>
-      <c r="S6" s="5">
-        <v>52.6</v>
+        <v>546</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>7.7</v>
+      </c>
+      <c r="R6">
+        <v>22.6</v>
+      </c>
+      <c r="S6">
+        <v>27.4</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>314</v>
+        <v>459</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>315</v>
+        <v>460</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>316</v>
+        <v>461</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P7" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R7" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="S7" s="5">
-        <v>12.7</v>
+        <v>161</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.2</v>
+      </c>
+      <c r="R7">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="S7">
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="R8" s="4">
-        <v>47.6</v>
-      </c>
-      <c r="S8" s="5">
-        <v>22.6</v>
+        <v>27</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>42.5</v>
+      </c>
+      <c r="S8">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="R9" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="S9" s="5">
-        <v>29</v>
+        <v>301</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>0.6</v>
+      </c>
+      <c r="R9">
+        <v>59</v>
+      </c>
+      <c r="S9">
+        <v>9.6</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>491</v>
+        <v>258</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>492</v>
+        <v>256</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>465</v>
+        <v>88</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>494</v>
+        <v>61</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>494</v>
+        <v>111</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="R10" s="5">
-        <v>31.6</v>
-      </c>
-      <c r="S10" s="5">
-        <v>22.4</v>
+        <v>68</v>
+      </c>
+      <c r="P10">
+        <v>1.5</v>
+      </c>
+      <c r="Q10">
+        <v>0.1</v>
+      </c>
+      <c r="R10">
+        <v>52</v>
+      </c>
+      <c r="S10">
+        <v>15.2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -11357,16 +11357,16 @@
       <c r="O11" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11">
         <v>1.7</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11">
         <v>38.200000000000003</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11">
         <v>4.8</v>
       </c>
     </row>

--- a/icm/resource/data.xlsx
+++ b/icm/resource/data.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="659">
   <si>
     <t>Country</t>
   </si>
@@ -1921,6 +1923,138 @@
     <t>Cultivated Land Area</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会-医疗卫生总支出（占 GDP 的百分比）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会-小学入学率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会-出生时的预期寿命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会-改善卫生设施的城市人口所占百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会-15-64岁的人口占总人口的百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技-期刊文章</t>
+  </si>
+  <si>
+    <t>科技-高科技出口</t>
+  </si>
+  <si>
+    <t>科技-研发支出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济-GDP增长率</t>
+  </si>
+  <si>
+    <t>经济-人均GDP</t>
+  </si>
+  <si>
+    <t>经济-工业增加值</t>
+  </si>
+  <si>
+    <t>经济-货物和服务进口</t>
+  </si>
+  <si>
+    <t>经济-总储蓄</t>
+  </si>
+  <si>
+    <t>环境-二氧化碳排放（千吨）</t>
+  </si>
+  <si>
+    <t>环境-国土面积（平方千米）</t>
+  </si>
+  <si>
+    <t>环境-化石燃料能耗（占总量的百分比）</t>
+  </si>
+  <si>
+    <t>环境-耕地面积（占土地面积的百分比）</t>
+  </si>
+  <si>
+    <t>环境-森林面积（占土地面积的百分比）</t>
+  </si>
+  <si>
+    <t>干旱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>CCPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>阿拉伯埃及共和国</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
 </sst>
 </file>
 
@@ -1932,7 +2066,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1960,13 +2094,51 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1978,7 +2150,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1987,16 +2159,33 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="5" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Comma [0]" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Currency" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -2005,6 +2194,7 @@
     <cellStyle name="Percent" xfId="2" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="常规 3" xfId="8" xr:uid="{B7C6D090-BA96-4588-85ED-A49E8ADFF07A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2284,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P179"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:XFD144"/>
+    <sheetView showFormulas="1" topLeftCell="A106" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10712,11 +10902,945 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C89B0E5-9247-49FF-B450-760BBA5E751A}">
+  <dimension ref="A1:B179"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1EF28-7017-414C-8B44-829027F84BD1}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11375,4 +12499,1449 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B491ED6-6BD2-4DF8-8F21-CCD20F8DF83A}">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="70" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" s="8">
+        <v>9.0871200000000005</v>
+      </c>
+      <c r="C2" s="8">
+        <v>109.354690551758</v>
+      </c>
+      <c r="D2" s="8">
+        <v>81.604878048780506</v>
+      </c>
+      <c r="E2" s="8">
+        <v>99.1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>64.030788993845704</v>
+      </c>
+      <c r="G2" s="8">
+        <v>99769.1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>21.580593621534653</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1.83023</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-3.179332E-2</v>
+      </c>
+      <c r="K2" s="8">
+        <v>42330</v>
+      </c>
+      <c r="L2" s="8">
+        <v>20.172094250154636</v>
+      </c>
+      <c r="M2" s="8">
+        <v>30.109554464911721</v>
+      </c>
+      <c r="N2" s="8">
+        <v>11.369802955293505</v>
+      </c>
+      <c r="O2" s="8">
+        <v>386031.2</v>
+      </c>
+      <c r="P2" s="8">
+        <v>243610</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>78.883420000000001</v>
+      </c>
+      <c r="R2" s="8">
+        <v>24.553909999999998</v>
+      </c>
+      <c r="S2" s="8">
+        <v>4.2331200000000004</v>
+      </c>
+      <c r="T2" s="8">
+        <v>13.00131</v>
+      </c>
+      <c r="U2" s="8">
+        <v>3.1127999999999999E-2</v>
+      </c>
+      <c r="V2" s="8">
+        <v>69.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.7859161600000002</v>
+      </c>
+      <c r="C3">
+        <v>99.346786499023395</v>
+      </c>
+      <c r="D3" s="9">
+        <v>76.134000000000015</v>
+      </c>
+      <c r="E3">
+        <v>95.9</v>
+      </c>
+      <c r="F3">
+        <v>63.843149781946899</v>
+      </c>
+      <c r="G3" s="10">
+        <v>8053.1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>7.2596801983763299</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.62017</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2.4053237807943599</v>
+      </c>
+      <c r="K3" s="11">
+        <v>12976.6364245411</v>
+      </c>
+      <c r="L3" s="11">
+        <v>28.585953313132901</v>
+      </c>
+      <c r="M3" s="11">
+        <v>14.7167556136651</v>
+      </c>
+      <c r="N3" s="10">
+        <v>15.2052726531958</v>
+      </c>
+      <c r="O3" s="11">
+        <v>204024.546</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2780400</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>88.542516588660902</v>
+      </c>
+      <c r="R3" s="11">
+        <v>14.3238729998648</v>
+      </c>
+      <c r="S3">
+        <v>0.9</v>
+      </c>
+      <c r="T3" s="11">
+        <v>10.015310466293201</v>
+      </c>
+      <c r="U3">
+        <v>0.2</v>
+      </c>
+      <c r="V3">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9.4223002400000002</v>
+      </c>
+      <c r="C4">
+        <v>97.043113708496094</v>
+      </c>
+      <c r="D4" s="9">
+        <v>82.3</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>66.489523941297094</v>
+      </c>
+      <c r="G4" s="10">
+        <v>47805.7</v>
+      </c>
+      <c r="H4" s="10">
+        <v>12.909994624449601</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2.20207</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2.56985608805907</v>
+      </c>
+      <c r="K4" s="11">
+        <v>67792.303862050103</v>
+      </c>
+      <c r="L4" s="11">
+        <v>26.905344159508701</v>
+      </c>
+      <c r="M4" s="11">
+        <v>20.879014408237101</v>
+      </c>
+      <c r="N4" s="10">
+        <v>24.696324779632999</v>
+      </c>
+      <c r="O4" s="11">
+        <v>361261.83899999998</v>
+      </c>
+      <c r="P4" s="11">
+        <v>7741220</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>93.386835655425998</v>
+      </c>
+      <c r="R4" s="11">
+        <v>6.0041914530804599</v>
+      </c>
+      <c r="S4">
+        <v>0.6</v>
+      </c>
+      <c r="T4" s="11">
+        <v>16.1986644624657</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>41.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.3792942100000003</v>
+      </c>
+      <c r="C5">
+        <v>95.365547180175795</v>
+      </c>
+      <c r="D5" s="9">
+        <v>77.034146341463426</v>
+      </c>
+      <c r="E5">
+        <v>97.5</v>
+      </c>
+      <c r="F5">
+        <v>65.555512572827297</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1425.8</v>
+      </c>
+      <c r="H5" s="10">
+        <v>10.546930229575199</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.72601</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1.9365434443487901</v>
+      </c>
+      <c r="K5" s="11">
+        <v>19072.238517566901</v>
+      </c>
+      <c r="L5" s="11">
+        <v>28.739905836133701</v>
+      </c>
+      <c r="M5" s="11">
+        <v>81.491419809461206</v>
+      </c>
+      <c r="N5" s="10">
+        <v>27.2029115264789</v>
+      </c>
+      <c r="O5" s="11">
+        <v>19519.440999999999</v>
+      </c>
+      <c r="P5" s="11">
+        <v>45230</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>14.490291113381801</v>
+      </c>
+      <c r="R5" s="11">
+        <v>15.798537390894101</v>
+      </c>
+      <c r="S5">
+        <v>2.9</v>
+      </c>
+      <c r="T5" s="11">
+        <v>52.663364000943602</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10.594750899999999</v>
+      </c>
+      <c r="C6">
+        <v>98.780487060546903</v>
+      </c>
+      <c r="D6" s="9">
+        <v>81.287804878048775</v>
+      </c>
+      <c r="E6">
+        <v>99.5</v>
+      </c>
+      <c r="F6">
+        <v>65.059624333762599</v>
+      </c>
+      <c r="G6" s="10">
+        <v>16511.3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>11.4875215607806</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2.43512</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.200650443652648</v>
+      </c>
+      <c r="K6" s="11">
+        <v>46582.669550341197</v>
+      </c>
+      <c r="L6" s="11">
+        <v>22.228612566355199</v>
+      </c>
+      <c r="M6" s="11">
+        <v>80.488341993343496</v>
+      </c>
+      <c r="N6" s="10">
+        <v>23.149922241272002</v>
+      </c>
+      <c r="O6" s="11">
+        <v>93350.819000000003</v>
+      </c>
+      <c r="P6" s="11">
+        <v>30530</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>72.446690385093504</v>
+      </c>
+      <c r="R6" s="11">
+        <v>27.3943196829591</v>
+      </c>
+      <c r="S6">
+        <v>7.7</v>
+      </c>
+      <c r="T6" s="11">
+        <v>22.554821664464999</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>64.650000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8.4429132599999992</v>
+      </c>
+      <c r="C7">
+        <v>94.929679870605497</v>
+      </c>
+      <c r="D7" s="9">
+        <v>74.465853658536588</v>
+      </c>
+      <c r="E7">
+        <v>86.8</v>
+      </c>
+      <c r="F7">
+        <v>66.456419803257901</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2677.3</v>
+      </c>
+      <c r="H7" s="10">
+        <v>7.9606358863205999</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.63490999999999997</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.86209273761465999</v>
+      </c>
+      <c r="K7" s="11">
+        <v>7674.8605591402702</v>
+      </c>
+      <c r="L7" s="11">
+        <v>27.580163920430401</v>
+      </c>
+      <c r="M7" s="11">
+        <v>65.062312935290606</v>
+      </c>
+      <c r="N7" s="10">
+        <v>24.393288851558498</v>
+      </c>
+      <c r="O7" s="11">
+        <v>42416.188999999998</v>
+      </c>
+      <c r="P7" s="11">
+        <v>111000</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>71.042631730416105</v>
+      </c>
+      <c r="R7" s="11">
+        <v>32.329587324981603</v>
+      </c>
+      <c r="S7">
+        <v>0.2</v>
+      </c>
+      <c r="T7" s="11">
+        <v>35.057111274870998</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>54.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5.6877215799999998</v>
+      </c>
+      <c r="C8">
+        <v>93.741058349609403</v>
+      </c>
+      <c r="D8" s="9">
+        <v>72.970731707317086</v>
+      </c>
+      <c r="E8">
+        <v>94.1</v>
+      </c>
+      <c r="F8">
+        <v>69.959443748773694</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1000.6</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4.39974112155189</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.67369999999999997</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1.0239854633252901</v>
+      </c>
+      <c r="K8" s="11">
+        <v>7978.87261471076</v>
+      </c>
+      <c r="L8" s="11">
+        <v>40.737360399994301</v>
+      </c>
+      <c r="M8" s="11">
+        <v>61.482387129047197</v>
+      </c>
+      <c r="N8" s="10">
+        <v>28.731067254023301</v>
+      </c>
+      <c r="O8" s="11">
+        <v>63497.771999999997</v>
+      </c>
+      <c r="P8" s="11">
+        <v>207600</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>92.440375016529202</v>
+      </c>
+      <c r="R8" s="11">
+        <v>28.017347592528701</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>42.450347444679899</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>56.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.3228335900000001</v>
+      </c>
+      <c r="C9">
+        <v>92.192222595214801</v>
+      </c>
+      <c r="D9" s="9">
+        <v>74.958243902439037</v>
+      </c>
+      <c r="E9">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>69.353101790960693</v>
+      </c>
+      <c r="G9" s="10">
+        <v>48622.2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>9.6506240536066006</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1.19828</v>
+      </c>
+      <c r="J9" s="11">
+        <v>3.00486535886174</v>
+      </c>
+      <c r="K9" s="11">
+        <v>12216.904464339599</v>
+      </c>
+      <c r="L9" s="11">
+        <v>24.850365412318599</v>
+      </c>
+      <c r="M9" s="11">
+        <v>13.9316781637998</v>
+      </c>
+      <c r="N9" s="10">
+        <v>18.336665093175501</v>
+      </c>
+      <c r="O9" s="11">
+        <v>529808.16</v>
+      </c>
+      <c r="P9" s="11">
+        <v>8515770</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>59.117564246751002</v>
+      </c>
+      <c r="R9" s="11">
+        <v>9.5735414817172195</v>
+      </c>
+      <c r="S9">
+        <v>0.6</v>
+      </c>
+      <c r="T9" s="11">
+        <v>59.166513123733303</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>55.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10.449581999999999</v>
+      </c>
+      <c r="C10">
+        <v>99.456741333007798</v>
+      </c>
+      <c r="D10" s="9">
+        <v>81.953048780487819</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>68.249250492799703</v>
+      </c>
+      <c r="G10" s="10">
+        <v>57796.7</v>
+      </c>
+      <c r="H10" s="10">
+        <v>14.0118526804551</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1.69164</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2.4750018591248999</v>
+      </c>
+      <c r="K10" s="11">
+        <v>52413.721156078602</v>
+      </c>
+      <c r="L10" s="11">
+        <v>28.845445087336198</v>
+      </c>
+      <c r="M10" s="11">
+        <v>31.8100564311959</v>
+      </c>
+      <c r="N10" s="10">
+        <v>21.5811271272554</v>
+      </c>
+      <c r="O10" s="11">
+        <v>537193.49800000002</v>
+      </c>
+      <c r="P10" s="11">
+        <v>9984670</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>73.395912233663097</v>
+      </c>
+      <c r="R10" s="11">
+        <v>4.7953320554989203</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="T10" s="11">
+        <v>38.171795049436398</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>40.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B11" s="4">
+        <v>11.297000669999999</v>
+      </c>
+      <c r="C11">
+        <v>98.632781982421903</v>
+      </c>
+      <c r="D11" s="9">
+        <v>81.090243902439042</v>
+      </c>
+      <c r="E11">
+        <v>99.3</v>
+      </c>
+      <c r="F11">
+        <v>65.8508907755905</v>
+      </c>
+      <c r="G11" s="10">
+        <v>101073.9</v>
+      </c>
+      <c r="H11" s="10">
+        <v>16.080068320758599</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2.8172999999999999</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.48958448249463499</v>
+      </c>
+      <c r="K11" s="11">
+        <v>46530.911427577601</v>
+      </c>
+      <c r="L11" s="11">
+        <v>30.1076905409147</v>
+      </c>
+      <c r="M11" s="11">
+        <v>39.438547327898497</v>
+      </c>
+      <c r="N11" s="10">
+        <v>26.186727630809099</v>
+      </c>
+      <c r="O11" s="11">
+        <v>719883.43799999997</v>
+      </c>
+      <c r="P11" s="11">
+        <v>357380</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>79.710526936991798</v>
+      </c>
+      <c r="R11" s="11">
+        <v>33.965011652272104</v>
+      </c>
+      <c r="S11" s="11">
+        <v>4.4586683410000001</v>
+      </c>
+      <c r="T11" s="11">
+        <v>32.722843221553497</v>
+      </c>
+      <c r="U11" s="11">
+        <v>3.2824573685482403E-2</v>
+      </c>
+      <c r="V11" s="11">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10.80495696</v>
+      </c>
+      <c r="C12">
+        <v>98.069526672363295</v>
+      </c>
+      <c r="D12" s="9">
+        <v>80.7</v>
+      </c>
+      <c r="E12">
+        <v>99.6</v>
+      </c>
+      <c r="F12">
+        <v>64.396758142867299</v>
+      </c>
+      <c r="G12" s="10">
+        <v>12482.4</v>
+      </c>
+      <c r="H12" s="10">
+        <v>14.3299354286297</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3.01688</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.93334928151622898</v>
+      </c>
+      <c r="K12" s="11">
+        <v>61191.192626042801</v>
+      </c>
+      <c r="L12" s="11">
+        <v>23.1888711053181</v>
+      </c>
+      <c r="M12" s="11">
+        <v>48.221334451309701</v>
+      </c>
+      <c r="N12" s="10">
+        <v>27.4520014722616</v>
+      </c>
+      <c r="O12" s="11">
+        <v>33498.044999999998</v>
+      </c>
+      <c r="P12" s="11">
+        <v>42922</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>68.534948190758598</v>
+      </c>
+      <c r="R12" s="11">
+        <v>55.989521314598697</v>
+      </c>
+      <c r="S12" s="11">
+        <v>14.450476913000001</v>
+      </c>
+      <c r="T12" s="11">
+        <v>14.460109549892801</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <v>75.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.6421150500000001</v>
+      </c>
+      <c r="C13">
+        <v>98.028503417968807</v>
+      </c>
+      <c r="D13" s="9">
+        <v>71.109560975609753</v>
+      </c>
+      <c r="E13">
+        <v>96.8</v>
+      </c>
+      <c r="F13">
+        <v>61.993030452933901</v>
+      </c>
+      <c r="G13" s="10">
+        <v>9199.2000000000007</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.51818645011350095</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.64602999999999999</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2.1854660536215502</v>
+      </c>
+      <c r="K13" s="11">
+        <v>3213.3891579094202</v>
+      </c>
+      <c r="L13" s="11">
+        <v>38.552415835411502</v>
+      </c>
+      <c r="M13" s="11">
+        <v>23.355192431735102</v>
+      </c>
+      <c r="N13" s="10">
+        <v>13.680159736615799</v>
+      </c>
+      <c r="O13" s="11">
+        <v>201894.019</v>
+      </c>
+      <c r="P13" s="11">
+        <v>1001450</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>95.969823114634593</v>
+      </c>
+      <c r="R13" s="11">
+        <v>2.9090963885679799</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1.622988267</v>
+      </c>
+      <c r="T13" s="11">
+        <v>7.2730925711989594E-2</v>
+      </c>
+      <c r="U13" s="11">
+        <v>1.2213476520119755E-2</v>
+      </c>
+      <c r="V13" s="11">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9.0298865100000008</v>
+      </c>
+      <c r="C14">
+        <v>98.938217163085895</v>
+      </c>
+      <c r="D14" s="9">
+        <v>83.229268292682931</v>
+      </c>
+      <c r="E14">
+        <v>99.8</v>
+      </c>
+      <c r="F14">
+        <v>66.579233872306901</v>
+      </c>
+      <c r="G14" s="10">
+        <v>53342.1</v>
+      </c>
+      <c r="H14" s="10">
+        <v>7.6662081675304599</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1.26328</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-1.7057050003465399</v>
+      </c>
+      <c r="K14" s="11">
+        <v>29211.773745593498</v>
+      </c>
+      <c r="L14" s="11">
+        <v>23.288614132293599</v>
+      </c>
+      <c r="M14" s="11">
+        <v>28.962077346730499</v>
+      </c>
+      <c r="N14" s="10">
+        <v>20.1936131687089</v>
+      </c>
+      <c r="O14" s="11">
+        <v>233976.60200000001</v>
+      </c>
+      <c r="P14" s="11">
+        <v>505940</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>71.531121848178103</v>
+      </c>
+      <c r="R14" s="11">
+        <v>24.664457034108</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0.82190223200000001</v>
+      </c>
+      <c r="T14" s="11">
+        <v>36.752044141460601</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0.7291935183379622</v>
+      </c>
+      <c r="V14" s="11">
+        <v>60.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B15" s="4">
+        <v>9.6799089400000007</v>
+      </c>
+      <c r="C15">
+        <v>99.433158874511705</v>
+      </c>
+      <c r="D15" s="9">
+        <v>81.180487804878069</v>
+      </c>
+      <c r="E15">
+        <v>99.4</v>
+      </c>
+      <c r="F15">
+        <v>63.938460546581403</v>
+      </c>
+      <c r="G15" s="10">
+        <v>10156.700000000001</v>
+      </c>
+      <c r="H15" s="10">
+        <v>7.2144716878649504</v>
+      </c>
+      <c r="I15" s="10">
+        <v>3.2926600000000001</v>
+      </c>
+      <c r="J15" s="11">
+        <v>-0.75803629482008705</v>
+      </c>
+      <c r="K15" s="11">
+        <v>49638.077129813901</v>
+      </c>
+      <c r="L15" s="11">
+        <v>27.018548359447301</v>
+      </c>
+      <c r="M15" s="11">
+        <v>39.699416734697898</v>
+      </c>
+      <c r="N15" s="10">
+        <v>19.703517437694298</v>
+      </c>
+      <c r="O15" s="11">
+        <v>47300.633000000002</v>
+      </c>
+      <c r="P15" s="11">
+        <v>338420</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>42.101346459549802</v>
+      </c>
+      <c r="R15" s="11">
+        <v>7.3781711690961096</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0.52823597799999999</v>
+      </c>
+      <c r="T15" s="11">
+        <v>73.111981309026305</v>
+      </c>
+      <c r="U15" s="11">
+        <v>3.8704347011103354E-4</v>
+      </c>
+      <c r="V15" s="11">
+        <v>56.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B16" s="4">
+        <v>11.53951975</v>
+      </c>
+      <c r="C16">
+        <v>98.847839355468807</v>
+      </c>
+      <c r="D16" s="9">
+        <v>82.670731707317088</v>
+      </c>
+      <c r="E16">
+        <v>98.6</v>
+      </c>
+      <c r="F16">
+        <v>63.194198194446997</v>
+      </c>
+      <c r="G16" s="10">
+        <v>72554.5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>25.8966650307893</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2.2340599999999999</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.57624154683449502</v>
+      </c>
+      <c r="K16" s="11">
+        <v>42554.122054241299</v>
+      </c>
+      <c r="L16" s="11">
+        <v>19.8390016797442</v>
+      </c>
+      <c r="M16" s="11">
+        <v>30.490730200032498</v>
+      </c>
+      <c r="N16" s="10">
+        <v>19.713951911940001</v>
+      </c>
+      <c r="O16" s="11">
+        <v>303275.56800000003</v>
+      </c>
+      <c r="P16" s="11">
+        <v>549087</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>46.208911968646802</v>
+      </c>
+      <c r="R16" s="11">
+        <v>33.747536786124499</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1.6473738039999999</v>
+      </c>
+      <c r="T16" s="11">
+        <v>30.820535578944298</v>
+      </c>
+      <c r="U16" s="11">
+        <v>5.7176459292674871E-3</v>
+      </c>
+      <c r="V16" s="11">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8.0842670200000004</v>
+      </c>
+      <c r="C17">
+        <v>96.281677246093807</v>
+      </c>
+      <c r="D17" s="9">
+        <v>81.436585365853659</v>
+      </c>
+      <c r="E17">
+        <v>99.2</v>
+      </c>
+      <c r="F17">
+        <v>65.756841311541905</v>
+      </c>
+      <c r="G17" s="10">
+        <v>11370.4</v>
+      </c>
+      <c r="H17" s="10">
+        <v>7.5379098562392999</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.80976000000000004</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-3.2414250250659098</v>
+      </c>
+      <c r="K17" s="11">
+        <v>21874.819504166699</v>
+      </c>
+      <c r="L17" s="11">
+        <v>16.5326647735669</v>
+      </c>
+      <c r="M17" s="11">
+        <v>33.165713941087603</v>
+      </c>
+      <c r="N17" s="10">
+        <v>9.6665010819210799</v>
+      </c>
+      <c r="O17" s="11">
+        <v>67318.785999999993</v>
+      </c>
+      <c r="P17" s="11">
+        <v>131960</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>86.058113613020794</v>
+      </c>
+      <c r="R17" s="11">
+        <v>17.253685027152802</v>
+      </c>
+      <c r="S17" s="11">
+        <v>3.0608644979999999</v>
+      </c>
+      <c r="T17" s="11">
+        <v>31.216446858029499</v>
+      </c>
+      <c r="U17" s="11">
+        <v>6.583138661805008E-3</v>
+      </c>
+      <c r="V17" s="11">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7.4007809299999998</v>
+      </c>
+      <c r="C18">
+        <v>90.769622802734403</v>
+      </c>
+      <c r="D18" s="9">
+        <v>75.763414634146343</v>
+      </c>
+      <c r="E18">
+        <v>97.8</v>
+      </c>
+      <c r="F18">
+        <v>68.389889879434506</v>
+      </c>
+      <c r="G18" s="10">
+        <v>6249.3</v>
+      </c>
+      <c r="H18" s="10">
+        <v>16.342483599617101</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1.39568</v>
+      </c>
+      <c r="J18" s="11">
+        <v>2.09621670829425</v>
+      </c>
+      <c r="K18" s="11">
+        <v>13667.7027865496</v>
+      </c>
+      <c r="L18" s="11">
+        <v>29.8411618623105</v>
+      </c>
+      <c r="M18" s="11">
+        <v>78.684231206869995</v>
+      </c>
+      <c r="N18" s="10">
+        <v>24.440381704865999</v>
+      </c>
+      <c r="O18" s="11">
+        <v>42086.159</v>
+      </c>
+      <c r="P18" s="11">
+        <v>93030</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>67.992838470820402</v>
+      </c>
+      <c r="R18" s="11">
+        <v>48.737435104385298</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
+        <v>22.8034905556169</v>
+      </c>
+      <c r="U18" s="11">
+        <v>8.8105351286892994E-2</v>
+      </c>
+      <c r="V18" s="11">
+        <v>65.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7.7831965700000003</v>
+      </c>
+      <c r="C19">
+        <v>94.726860046386705</v>
+      </c>
+      <c r="D19" s="9">
+        <v>81.348780487804873</v>
+      </c>
+      <c r="E19">
+        <v>89.1</v>
+      </c>
+      <c r="F19">
+        <v>65.609652891687304</v>
+      </c>
+      <c r="G19" s="10">
+        <v>6874</v>
+      </c>
+      <c r="H19" s="10">
+        <v>22.424788943916599</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1.5628599999999999</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1.6388205799634901</v>
+      </c>
+      <c r="K19" s="11">
+        <v>52060.467861083802</v>
+      </c>
+      <c r="L19" s="11">
+        <v>27.402167749154302</v>
+      </c>
+      <c r="M19" s="11">
+        <v>87.252674536371003</v>
+      </c>
+      <c r="N19" s="10">
+        <v>21.698139475849398</v>
+      </c>
+      <c r="O19" s="11">
+        <v>34066.43</v>
+      </c>
+      <c r="P19" s="11">
+        <v>70280</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>84.584804640228697</v>
+      </c>
+      <c r="R19" s="11">
+        <v>14.9368558571636</v>
+      </c>
+      <c r="S19" s="11">
+        <v>2.0695384350000001</v>
+      </c>
+      <c r="T19" s="11">
+        <v>10.8628247931485</v>
+      </c>
+      <c r="U19" s="11">
+        <v>4.9073693992096193E-3</v>
+      </c>
+      <c r="V19" s="11">
+        <v>65.010000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B20" s="4">
+        <v>9.2479178300000004</v>
+      </c>
+      <c r="C20">
+        <v>97.506523132324205</v>
+      </c>
+      <c r="D20" s="9">
+        <v>83.090243902439042</v>
+      </c>
+      <c r="E20">
+        <v>99.5</v>
+      </c>
+      <c r="F20">
+        <v>64.214859519574404</v>
+      </c>
+      <c r="G20" s="10">
+        <v>66310.3</v>
+      </c>
+      <c r="H20" s="10">
+        <v>7.2443840512592299</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1.3114399999999999</v>
+      </c>
+      <c r="J20" s="11">
+        <v>-1.7281608024923101</v>
+      </c>
+      <c r="K20" s="11">
+        <v>35370.275258375499</v>
+      </c>
+      <c r="L20" s="11">
+        <v>23.698258735975099</v>
+      </c>
+      <c r="M20" s="11">
+        <v>26.604003454819299</v>
+      </c>
+      <c r="N20" s="10">
+        <v>17.915578128639702</v>
+      </c>
+      <c r="O20" s="11">
+        <v>320411.45899999997</v>
+      </c>
+      <c r="P20" s="11">
+        <v>301340</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>78.586422621938596</v>
+      </c>
+      <c r="R20" s="11">
+        <v>22.441694431223201</v>
+      </c>
+      <c r="S20" s="11">
+        <v>3.8765969660000001</v>
+      </c>
+      <c r="T20" s="11">
+        <v>31.4244917386279</v>
+      </c>
+      <c r="U20" s="11">
+        <v>7.102219068959156E-3</v>
+      </c>
+      <c r="V20">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10.22874408</v>
+      </c>
+      <c r="C21">
+        <v>99.950012207031307</v>
+      </c>
+      <c r="D21" s="9">
+        <v>83.5878048780488</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>61.582678471947197</v>
+      </c>
+      <c r="G21" s="10">
+        <v>103376.6</v>
+      </c>
+      <c r="H21" s="10">
+        <v>16.784294110903499</v>
+      </c>
+      <c r="I21" s="10">
+        <v>3.3161200000000002</v>
+      </c>
+      <c r="J21" s="11">
+        <v>2.0004895721241902</v>
+      </c>
+      <c r="K21" s="11">
+        <v>40454.447457890303</v>
+      </c>
+      <c r="L21" s="11">
+        <v>27.103255983593701</v>
+      </c>
+      <c r="M21" s="11">
+        <v>18.2321241332052</v>
+      </c>
+      <c r="N21" s="10">
+        <v>24.034956521246102</v>
+      </c>
+      <c r="O21" s="11">
+        <v>1214048.358</v>
+      </c>
+      <c r="P21" s="11">
+        <v>377962</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>94.683364592403805</v>
+      </c>
+      <c r="R21" s="11">
+        <v>11.5234803598859</v>
+      </c>
+      <c r="S21" s="11">
+        <v>3.4357957519999998</v>
+      </c>
+      <c r="T21" s="11">
+        <v>68.464998902786903</v>
+      </c>
+      <c r="U21" s="11">
+        <v>2.0951550145542071E-2</v>
+      </c>
+      <c r="V21" s="11">
+        <v>47.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>